--- a/ModulesSheet.xlsx
+++ b/ModulesSheet.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MyModules" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,8 @@
           <t>Identifier</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>00000</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -489,6 +487,90 @@
       </c>
       <c r="F2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ABE TEST FARM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Module 1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16.2%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ABE TEST FARM</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Module 2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>16.2%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>20.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ABE TEST FARM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Module 3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16.2%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>20.2%</t>
+        </is>
       </c>
     </row>
   </sheetData>
